--- a/pred_ohlcv/54_21/2019-10-19 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LBA ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1966952.0043</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2274546.518</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2197269.4726</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2471758.2796</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2145463.446299999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2115739.431799999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2023844.790599999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2329592.293899999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2168777.182099999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2289806.503499999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2351443.078091302</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2364169.843391303</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2479941.931991302</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2802415.837091302</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2728415.837091302</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2781165.837091302</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2777258.837091302</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2722255.837091302</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2007951.120291301</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2008931.120291301</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1999531.120291301</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1963505.721291301</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1964084.023391301</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1961822.371091301</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1992022.371091301</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1978422.371091301</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1988422.371091301</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1993832.371091301</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2046406.917991302</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1962817.827491301</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1960308.827491301</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2034809.596391301</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2017355.993291301</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2118267.998991301</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1794494.184791301</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1236222.314991302</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>585281.802751619</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>573091.802751619</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-503963.5051483809</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-726734.9657483809</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LBA ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1880004.9674</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1966952.0043</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2274546.518</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2197269.4726</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2471758.2796</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2145463.446299999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2115739.431799999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2023844.790599999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2329592.293899999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2168777.182099999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2196331.648499999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2289806.503499999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2535028.339191303</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2535028.339191303</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2438974.225791303</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2426766.338291302</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2354480.838391302</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2375454.624991302</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2351443.078091302</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2389507.695191302</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2364169.843391303</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2465116.759591302</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2480041.681991302</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2479941.931991302</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2802415.837091302</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2728415.837091302</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2781165.837091302</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2781755.837091302</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2777258.837091302</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2722255.837091302</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2054891.096991301</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2027751.120291301</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2007951.120291301</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2008931.120291301</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1999531.120291301</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1963505.721291301</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1964084.023391301</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1961822.371091301</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1992022.371091301</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1978422.371091301</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1988422.371091301</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1963832.371091301</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1993832.371091301</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1985239.718891301</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2046406.917991302</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2008677.949091302</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1974417.827491301</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1962817.827491301</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1990047.827491301</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1960308.827491301</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2046438.946591301</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2034809.596391301</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>2017355.993291301</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>2030735.993291301</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2118267.998991301</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2001422.539291301</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1795283.818791301</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1794494.184791301</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1372492.171691302</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1372503.295091302</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1368811.081791302</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1371251.936391302</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1371211.936391302</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1236222.314991302</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>686778.9409913016</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>585281.802751619</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>573091.802751619</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-503963.5051483809</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-697698.9105483809</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-682898.9105483809</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-726734.9657483809</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-886903.4587483809</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-974653.3767483809</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
